--- a/src/test/java/Utilities/Excel.xlsx
+++ b/src/test/java/Utilities/Excel.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MU\IdeaProjects\Seleniums_Fundamentals\src\test\java\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB0388C-2E11-43C2-B6B8-5F95C626EFF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75381B74-440C-4CEE-821F-278577B5EEFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{BD6CC0DB-157B-4D21-9C9B-D5287E17AA44}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="16457" windowHeight="9549" xr2:uid="{BD6CC0DB-157B-4D21-9C9B-D5287E17AA44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FBWebsite</t>
   </si>
@@ -43,6 +45,18 @@
   </si>
   <si>
     <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Muhtar Mahmut</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>Cybertek</t>
   </si>
 </sst>
 </file>
@@ -405,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6568447E-174C-4954-9A3D-2DAA3D34AC93}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -417,7 +431,7 @@
     <col min="2" max="2" width="28.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,12 +439,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="24.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -440,4 +470,28 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870F1E5A-36E3-4482-8705-71F16F75E116}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8033CBA-2A8B-4A7A-9648-6B6E59C93F2D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>